--- a/Suspended_Sediment_Analysis/LANL_SS/up_LANL.xlsx
+++ b/Suspended_Sediment_Analysis/LANL_SS/up_LANL.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Suspended_Sediment_Analysis\LANL_SS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B238B8-6551-4D24-9508-CF57802EDAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B325CDF-0061-491A-906F-BD693A3709A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390"/>
+    <workbookView minimized="1" xWindow="-26040" yWindow="1230" windowWidth="22260" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="up_LANL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={6BDCE9FF-5F42-4105-813A-4EDDF781AC0B}</author>
   </authors>
   <commentList>
-    <comment ref="A74" authorId="0" shapeId="0">
+    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +200,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -721,8 +728,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.274715660542432E-3"/>
-                  <c:y val="-0.12554461942257217"/>
+                  <c:x val="-0.13462182852143481"/>
+                  <c:y val="-0.15423556430446195"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2285,8 +2292,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.274715660542432E-3"/>
-                  <c:y val="-0.12554461942257217"/>
+                  <c:x val="-3.5811023622047244E-2"/>
+                  <c:y val="-3.8362496354622341E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4724,11 +4731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
